--- a/data.xlsx
+++ b/data.xlsx
@@ -777,10 +777,6 @@
       <c r="G2" t="n">
         <v>9550000</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>8.2</t>
